--- a/src/preprocessing/excel_files/pristineNinjas_piper_metrics.xlsx
+++ b/src/preprocessing/excel_files/pristineNinjas_piper_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>trophies</t>
+          <t>highest_trophies</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>highest_trophies</t>
+          <t>3vs3_victories</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>exp_level</t>
         </is>
       </c>
     </row>
@@ -475,10 +480,13 @@
         <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>809</v>
+        <v>911</v>
       </c>
       <c r="E2" t="n">
-        <v>911</v>
+        <v>15969</v>
+      </c>
+      <c r="F2" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
@@ -496,10 +504,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>948</v>
+        <v>1029</v>
       </c>
       <c r="E3" t="n">
-        <v>1029</v>
+        <v>17882</v>
+      </c>
+      <c r="F3" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="4">
@@ -517,10 +528,13 @@
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>835</v>
+        <v>888</v>
       </c>
       <c r="E4" t="n">
-        <v>888</v>
+        <v>23472</v>
+      </c>
+      <c r="F4" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -538,10 +552,13 @@
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>899</v>
+        <v>1157</v>
       </c>
       <c r="E5" t="n">
-        <v>1157</v>
+        <v>10416</v>
+      </c>
+      <c r="F5" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>673</v>
       </c>
       <c r="E6" t="n">
-        <v>673</v>
+        <v>8575</v>
+      </c>
+      <c r="F6" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="7">
@@ -580,10 +600,13 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="E7" t="n">
-        <v>667</v>
+        <v>13012</v>
+      </c>
+      <c r="F7" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="8">
@@ -601,10 +624,13 @@
         <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>759</v>
+        <v>808</v>
       </c>
       <c r="E8" t="n">
-        <v>808</v>
+        <v>8756</v>
+      </c>
+      <c r="F8" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="9">
@@ -622,10 +648,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>622</v>
+        <v>1005</v>
       </c>
       <c r="E9" t="n">
-        <v>1005</v>
+        <v>12196</v>
+      </c>
+      <c r="F9" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -643,10 +672,13 @@
         <v>28</v>
       </c>
       <c r="D10" t="n">
-        <v>914</v>
+        <v>943</v>
       </c>
       <c r="E10" t="n">
-        <v>943</v>
+        <v>11266</v>
+      </c>
+      <c r="F10" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +696,13 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>650</v>
+        <v>741</v>
       </c>
       <c r="E11" t="n">
-        <v>741</v>
+        <v>19206</v>
+      </c>
+      <c r="F11" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>879</v>
+        <v>901</v>
       </c>
       <c r="E12" t="n">
-        <v>890</v>
+        <v>8763</v>
+      </c>
+      <c r="F12" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -706,10 +744,13 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>858</v>
+        <v>904</v>
       </c>
       <c r="E13" t="n">
-        <v>904</v>
+        <v>12889</v>
+      </c>
+      <c r="F13" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -727,10 +768,13 @@
         <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E14" t="n">
-        <v>423</v>
+        <v>9053</v>
+      </c>
+      <c r="F14" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="15">
@@ -751,7 +795,10 @@
         <v>614</v>
       </c>
       <c r="E15" t="n">
-        <v>614</v>
+        <v>5394</v>
+      </c>
+      <c r="F15" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="16">
@@ -769,10 +816,13 @@
         <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="E16" t="n">
-        <v>639</v>
+        <v>3406</v>
+      </c>
+      <c r="F16" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -793,7 +843,10 @@
         <v>750</v>
       </c>
       <c r="E17" t="n">
-        <v>750</v>
+        <v>8527</v>
+      </c>
+      <c r="F17" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -811,10 +864,13 @@
         <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>635</v>
+        <v>697</v>
       </c>
       <c r="E18" t="n">
-        <v>697</v>
+        <v>4465</v>
+      </c>
+      <c r="F18" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +891,10 @@
         <v>532</v>
       </c>
       <c r="E19" t="n">
-        <v>532</v>
+        <v>3893</v>
+      </c>
+      <c r="F19" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="20">
@@ -853,10 +912,13 @@
         <v>21</v>
       </c>
       <c r="D20" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="E20" t="n">
-        <v>555</v>
+        <v>6289</v>
+      </c>
+      <c r="F20" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -874,10 +936,13 @@
         <v>27</v>
       </c>
       <c r="D21" t="n">
-        <v>806</v>
+        <v>871</v>
       </c>
       <c r="E21" t="n">
-        <v>871</v>
+        <v>6367</v>
+      </c>
+      <c r="F21" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -895,10 +960,13 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E22" t="n">
-        <v>460</v>
+        <v>5373</v>
+      </c>
+      <c r="F22" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -916,10 +984,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="n">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="E23" t="n">
-        <v>852</v>
+        <v>7921</v>
+      </c>
+      <c r="F23" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="24">
@@ -940,7 +1011,10 @@
         <v>1009</v>
       </c>
       <c r="E24" t="n">
-        <v>1009</v>
+        <v>7811</v>
+      </c>
+      <c r="F24" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -958,10 +1032,13 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E25" t="n">
-        <v>187</v>
+        <v>4967</v>
+      </c>
+      <c r="F25" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="26">
@@ -982,7 +1059,10 @@
         <v>367</v>
       </c>
       <c r="E26" t="n">
-        <v>367</v>
+        <v>8582</v>
+      </c>
+      <c r="F26" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="27">
@@ -1003,7 +1083,10 @@
         <v>363</v>
       </c>
       <c r="E27" t="n">
-        <v>363</v>
+        <v>4388</v>
+      </c>
+      <c r="F27" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="28">
@@ -1021,10 +1104,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>899</v>
+        <v>1008</v>
       </c>
       <c r="E28" t="n">
-        <v>1008</v>
+        <v>2589</v>
+      </c>
+      <c r="F28" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="29">
@@ -1042,10 +1128,13 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E29" t="n">
-        <v>531</v>
+        <v>4194</v>
+      </c>
+      <c r="F29" t="n">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
